--- a/biology/Zoologie/Anaxyrus_houstonensis/Anaxyrus_houstonensis.xlsx
+++ b/biology/Zoologie/Anaxyrus_houstonensis/Anaxyrus_houstonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anaxyrus houstonensis est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaxyrus houstonensis est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Texas aux États-Unis[1]. Historiquement, cette espèce était présente dans toute la région côtière centrale du Texas, l'espèce a par la suite disparu de la région de Houston pendant les années 1960 à la suite d'une sècheresse prolongée et de l'expansion urbaine rapide de la ville de Houston. Parmi les rares populations restantes, la plus importante est celle du Comté de Bastrop.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Texas aux États-Unis. Historiquement, cette espèce était présente dans toute la région côtière centrale du Texas, l'espèce a par la suite disparu de la région de Houston pendant les années 1960 à la suite d'une sècheresse prolongée et de l'expansion urbaine rapide de la ville de Houston. Parmi les rares populations restantes, la plus importante est celle du Comté de Bastrop.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 49 à 66 mm et les femelles de 57 à 80 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 49 à 66 mm et les femelles de 57 à 80 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de houston et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, une zone située au nord-ouest de Houston.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sanders, 1953 : A New Species of Toad, with a Discussion of Morphology of the Bufonid Skull. Herpetologica, vol. 9, no 1, p. 25-47.</t>
         </is>
